--- a/Stock-URL.xlsx
+++ b/Stock-URL.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t xml:space="preserve">Name of Stock</t>
   </si>
@@ -68,6 +68,18 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.moneycontrol.com/technical-analysis/hdfcassetmanagementcompany/HAM02/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maruti-Suzuki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.moneycontrol.com/technical-analysis/marutisuzukiindia/MS24/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bajaj Auto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.moneycontrol.com/technical-analysis/bajajauto/BA10/</t>
   </si>
 </sst>
 </file>
@@ -82,6 +94,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -163,16 +176,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="88.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="88.1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -237,6 +250,22 @@
       </c>
       <c r="B8" s="0" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Stock-URL.xlsx
+++ b/Stock-URL.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t xml:space="preserve">Name of Stock</t>
   </si>
@@ -28,58 +28,232 @@
     <t xml:space="preserve">Url</t>
   </si>
   <si>
+    <t xml:space="preserve">Adani Port</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.moneycontrol.com/technical-analysis/AdaniPorts/MPS/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asian Paints</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.moneycontrol.com/technical-analysis/asianpaints/AP31/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bajaj Auto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.moneycontrol.com/technical-analysis/bajajauto/BA10/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bajaj Finance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.moneycontrol.com/technical-analysis/bajajfinance/BAF/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bajaj Finserv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.moneycontrol.com/technical-analysis/bajajfinserv/BF04/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bhartiya Airtel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.moneycontrol.com/technical-analysis/bhartiairtel/BA08/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coal India</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.moneycontrol.com/technical-analysis/coalindia/CI11/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deepak Nitrite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.moneycontrol.com/technical-analysis/deepaknitrite/DN/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.moneycontrol.com/technical-analysis/goacarbon/GC04/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HDFC AMC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.moneycontrol.com/technical-analysis/hdfcassetmanagementcompany/HAM02/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HDFC Bank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.moneycontrol.com/technical-analysis/hdfcbank/HDF01/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HDFC Life</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.moneycontrol.com/technical-analysis/hdfclifeinsurancecompanylimited/HSL01/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HEG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.moneycontrol.com/technical-analysis/heg/HEG/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hindal Co</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.moneycontrol.com/technical-analysis/hindustanconstructioncompany/HCC/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I Bull Housing Finance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.moneycontrol.com/technical-analysis/indiabullshousingfinance/IHF01/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Idea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.moneycontrol.com/technical-analysis/vodafoneidealimited/IC8/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDFC First Bank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.moneycontrol.com/technical-analysis/idfcfirstbank/IDF01/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indus Ind Bank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.moneycontrol.com/technical-analysis/indusindbank/IIB/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IOC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.moneycontrol.com/technical-analysis/indianoilcorporation/IOC/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IRCTC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.moneycontrol.com/technical-analysis/irctc-indianrailwaycateringtourismcorp/IRC/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.moneycontrol.com/technical-analysis/itc/ITC/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L&amp;T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.moneycontrol.com/technical-analysis/larsentoubro/LT/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M&amp;M Finance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.moneycontrol.com/technical-analysis/mahindramahindrafinancialservices/MMF04/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manapuram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.moneycontrol.com/technical-analysis/manappuramfinance/MGF01/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maruti-Suzuki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.moneycontrol.com/technical-analysis/marutisuzukiindia/MS24/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muthood Finance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.moneycontrol.com/technical-analysis/muthootfinance/MF10/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PFC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.moneycontrol.com/technical-analysis/powerfinancecorporation/PFC02/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Philips Carbon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.moneycontrol.com/technical-analysis/phillipscarbonblack/PCB01/</t>
+  </si>
+  <si>
     <t xml:space="preserve">Reliance</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.moneycontrol.com/technical-analysis/relianceindustries/RI/</t>
   </si>
   <si>
+    <t xml:space="preserve">SBI  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.moneycontrol.com/technical-analysis/statebankindia/SBI/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBI Life</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.moneycontrol.com/technical-analysis/sbilifeinsurancecompany/SLI03/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sunpharma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.moneycontrol.com/technical-analysis/sunpharmaceuticalindustries/SPI/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tata Chemicals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.moneycontrol.com/technical-analysis/tatachemicals/TC/</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tata Motors</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.moneycontrol.com/technical-analysis/tatamotors/TM03/</t>
   </si>
   <si>
-    <t xml:space="preserve">Bajaj Finance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.moneycontrol.com/technical-analysis/bajajfinance/BAF/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bajaj Finserv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.moneycontrol.com/technical-analysis/bajajfinserv/BF04/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HDFC Bank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.moneycontrol.com/technical-analysis/hdfcbank/HDF01/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HDFC Life</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.moneycontrol.com/technical-analysis/hdfclifeinsurancecompanylimited/HSL01/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HDFC AMC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.moneycontrol.com/technical-analysis/hdfcassetmanagementcompany/HAM02/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maruti-Suzuki</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.moneycontrol.com/technical-analysis/marutisuzukiindia/MS24/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bajaj Auto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.moneycontrol.com/technical-analysis/bajajauto/BA10/</t>
+    <t xml:space="preserve">Tata Powers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.moneycontrol.com/technical-analysis/tatapowercompany/TPC/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tata Steels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.moneycontrol.com/technical-analysis/tatasteel/TIS/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.moneycontrol.com/technical-analysis/tataconsultancyservices/TCS/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wipro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.moneycontrol.com/technical-analysis/wipro/W/</t>
   </si>
 </sst>
 </file>
@@ -89,7 +263,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -110,6 +284,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -154,8 +335,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -176,13 +361,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="88.1"/>
@@ -200,7 +385,7 @@
       <c r="A2" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -208,7 +393,7 @@
       <c r="A3" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -240,7 +425,7 @@
       <c r="A7" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -248,7 +433,7 @@
       <c r="A8" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -256,7 +441,7 @@
       <c r="A9" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -264,11 +449,273 @@
       <c r="A10" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>19</v>
       </c>
     </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="https://www.moneycontrol.com/technical-analysis/AdaniPorts/MPS/"/>
+    <hyperlink ref="B3" r:id="rId2" display="https://www.moneycontrol.com/technical-analysis/asianpaints/AP31/"/>
+    <hyperlink ref="B7" r:id="rId3" display="https://www.moneycontrol.com/technical-analysis/bhartiairtel/BA08/"/>
+    <hyperlink ref="B8" r:id="rId4" display="https://www.moneycontrol.com/technical-analysis/coalindia/CI11/"/>
+    <hyperlink ref="B9" r:id="rId5" display="https://www.moneycontrol.com/technical-analysis/deepaknitrite/DN/"/>
+    <hyperlink ref="B10" r:id="rId6" display="https://www.moneycontrol.com/technical-analysis/goacarbon/GC04/"/>
+    <hyperlink ref="B14" r:id="rId7" display="https://www.moneycontrol.com/technical-analysis/heg/HEG/"/>
+    <hyperlink ref="B15" r:id="rId8" display="https://www.moneycontrol.com/technical-analysis/hindustanconstructioncompany/HCC/"/>
+    <hyperlink ref="B16" r:id="rId9" display="https://www.moneycontrol.com/technical-analysis/indiabullshousingfinance/IHF01/"/>
+    <hyperlink ref="B17" r:id="rId10" display="https://www.moneycontrol.com/technical-analysis/vodafoneidealimited/IC8/"/>
+    <hyperlink ref="B19" r:id="rId11" display="https://www.moneycontrol.com/technical-analysis/indusindbank/IIB/"/>
+    <hyperlink ref="B20" r:id="rId12" display="https://www.moneycontrol.com/technical-analysis/indianoilcorporation/IOC/"/>
+    <hyperlink ref="B21" r:id="rId13" display="https://www.moneycontrol.com/technical-analysis/irctc-indianrailwaycateringtourismcorp/IRC/"/>
+    <hyperlink ref="B22" r:id="rId14" display="https://www.moneycontrol.com/technical-analysis/itc/ITC/"/>
+    <hyperlink ref="B23" r:id="rId15" display="https://www.moneycontrol.com/technical-analysis/larsentoubro/LT/"/>
+    <hyperlink ref="B24" r:id="rId16" display="https://www.moneycontrol.com/technical-analysis/mahindramahindrafinancialservices/MMF04/"/>
+    <hyperlink ref="B25" r:id="rId17" display="https://www.moneycontrol.com/technical-analysis/manappuramfinance/MGF01/"/>
+    <hyperlink ref="B27" r:id="rId18" display="https://www.moneycontrol.com/technical-analysis/muthootfinance/MF10/"/>
+    <hyperlink ref="B28" r:id="rId19" display="https://www.moneycontrol.com/technical-analysis/powerfinancecorporation/PFC02/"/>
+    <hyperlink ref="B29" r:id="rId20" display="https://www.moneycontrol.com/technical-analysis/phillipscarbonblack/PCB01/"/>
+    <hyperlink ref="B31" r:id="rId21" display="https://www.moneycontrol.com/technical-analysis/statebankindia/SBI/"/>
+    <hyperlink ref="B32" r:id="rId22" display="https://www.moneycontrol.com/technical-analysis/sbilifeinsurancecompany/SLI03/"/>
+    <hyperlink ref="B33" r:id="rId23" display="https://www.moneycontrol.com/technical-analysis/sunpharmaceuticalindustries/SPI/"/>
+    <hyperlink ref="B34" r:id="rId24" display="https://www.moneycontrol.com/technical-analysis/tatachemicals/TC/"/>
+    <hyperlink ref="B36" r:id="rId25" display="https://www.moneycontrol.com/technical-analysis/tatapowercompany/TPC/"/>
+    <hyperlink ref="B37" r:id="rId26" display="https://www.moneycontrol.com/technical-analysis/tatasteel/TIS/"/>
+    <hyperlink ref="B38" r:id="rId27" display="https://www.moneycontrol.com/technical-analysis/tataconsultancyservices/TCS/"/>
+    <hyperlink ref="B39" r:id="rId28" display="https://www.moneycontrol.com/technical-analysis/wipro/W/"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
